--- a/20210107/VTP_danh_sach_van_don_07_01_2021 13_27_13.xlsx
+++ b/20210107/VTP_danh_sach_van_don_07_01_2021 13_27_13.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B853B48A-4BA9-004C-92FB-C798833E8568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sach van don" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Danh sach van don'!$A$9:$EZ$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Danh sach van don'!$A$9:$EZ$56</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">'Danh sach van don'!$B$9</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="420">
   <si>
     <t>Người gửi</t>
   </si>
@@ -1291,22 +1293,25 @@
   </si>
   <si>
     <t>05/12/2020 10:46:12</t>
+  </si>
+  <si>
+    <t>KT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,###"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,###"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1339,7 +1344,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1389,7 +1394,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1530,7 +1535,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1553,24 +1558,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1579,7 +1584,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1588,7 +1593,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1636,8 +1641,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1655,6 +1660,1294 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="INBKCUOC_KHACHHANG20210107-1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>615415798</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>0HC12</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G3">
+            <v>120</v>
+          </cell>
+          <cell r="H3">
+            <v>10000</v>
+          </cell>
+          <cell r="I3">
+            <v>2650</v>
+          </cell>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
+          <cell r="K3">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>615415779</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>0HCQ2</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G4">
+            <v>120</v>
+          </cell>
+          <cell r="H4">
+            <v>10000</v>
+          </cell>
+          <cell r="I4">
+            <v>2650</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>615399404</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>0HCGV</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G5">
+            <v>120</v>
+          </cell>
+          <cell r="H5">
+            <v>10000</v>
+          </cell>
+          <cell r="I5">
+            <v>2650</v>
+          </cell>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
+          <cell r="K5">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>615399409</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>0BDDA</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G6">
+            <v>120</v>
+          </cell>
+          <cell r="H6">
+            <v>16500</v>
+          </cell>
+          <cell r="I6">
+            <v>4373</v>
+          </cell>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+          <cell r="K6">
+            <v>20873</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1639419471985</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>0HC12</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G7">
+            <v>20</v>
+          </cell>
+          <cell r="H7">
+            <v>8000</v>
+          </cell>
+          <cell r="I7">
+            <v>2120</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>10120</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>13599416493</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>0HCQ1</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G8">
+            <v>20</v>
+          </cell>
+          <cell r="H8">
+            <v>8000</v>
+          </cell>
+          <cell r="I8">
+            <v>2120</v>
+          </cell>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
+          <cell r="K8">
+            <v>10120</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>13597032513</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>0HCQ1</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G9">
+            <v>20</v>
+          </cell>
+          <cell r="H9">
+            <v>8000</v>
+          </cell>
+          <cell r="I9">
+            <v>2120</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>10120</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1640188178462</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>0HCQ9</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G10">
+            <v>20</v>
+          </cell>
+          <cell r="H10">
+            <v>8000</v>
+          </cell>
+          <cell r="I10">
+            <v>2120</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>10120</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>13618359546</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>0HCTB</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G11">
+            <v>120</v>
+          </cell>
+          <cell r="H11">
+            <v>10000</v>
+          </cell>
+          <cell r="I11">
+            <v>2650</v>
+          </cell>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
+          <cell r="K11">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>1625594328495</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>0HNDD</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G12">
+            <v>120</v>
+          </cell>
+          <cell r="H12">
+            <v>22000</v>
+          </cell>
+          <cell r="I12">
+            <v>5830</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>27830</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>13617112140</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>0HCQ8</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G13">
+            <v>120</v>
+          </cell>
+          <cell r="H13">
+            <v>10000</v>
+          </cell>
+          <cell r="I13">
+            <v>2650</v>
+          </cell>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
+          <cell r="K13">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>13617120994</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>0HCTD</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G14">
+            <v>120</v>
+          </cell>
+          <cell r="H14">
+            <v>10000</v>
+          </cell>
+          <cell r="I14">
+            <v>2650</v>
+          </cell>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
+          <cell r="K14">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>13617183681</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>0HC11</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G15">
+            <v>120</v>
+          </cell>
+          <cell r="H15">
+            <v>10000</v>
+          </cell>
+          <cell r="I15">
+            <v>2650</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>13622666792</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>0HC12</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G16">
+            <v>120</v>
+          </cell>
+          <cell r="H16">
+            <v>10000</v>
+          </cell>
+          <cell r="I16">
+            <v>2650</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+          <cell r="K16">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>13622783696</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>0HCGV</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G17">
+            <v>120</v>
+          </cell>
+          <cell r="H17">
+            <v>10000</v>
+          </cell>
+          <cell r="I17">
+            <v>2650</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>13624813448</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>0HC10</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G18">
+            <v>120</v>
+          </cell>
+          <cell r="H18">
+            <v>10000</v>
+          </cell>
+          <cell r="I18">
+            <v>2650</v>
+          </cell>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
+          <cell r="K18">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>13622739989</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>0HCBH</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G19">
+            <v>120</v>
+          </cell>
+          <cell r="H19">
+            <v>10000</v>
+          </cell>
+          <cell r="I19">
+            <v>2650</v>
+          </cell>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
+          <cell r="K19">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>13628880847</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>0HCQ1</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G20">
+            <v>120</v>
+          </cell>
+          <cell r="H20">
+            <v>10000</v>
+          </cell>
+          <cell r="I20">
+            <v>2650</v>
+          </cell>
+          <cell r="J20">
+            <v>0</v>
+          </cell>
+          <cell r="K20">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>1618436221597</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>0HCBH</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G21">
+            <v>20</v>
+          </cell>
+          <cell r="H21">
+            <v>8000</v>
+          </cell>
+          <cell r="I21">
+            <v>2120</v>
+          </cell>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
+          <cell r="K21">
+            <v>10120</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>1615635711950</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>0HCQ1</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G22">
+            <v>120</v>
+          </cell>
+          <cell r="H22">
+            <v>10000</v>
+          </cell>
+          <cell r="I22">
+            <v>2650</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+          <cell r="K22">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>1635482816290</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>0HC10</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G23">
+            <v>120</v>
+          </cell>
+          <cell r="H23">
+            <v>10000</v>
+          </cell>
+          <cell r="I23">
+            <v>2650</v>
+          </cell>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
+          <cell r="K23">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>1615888154713</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>0HCGV</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G24">
+            <v>120</v>
+          </cell>
+          <cell r="H24">
+            <v>10000</v>
+          </cell>
+          <cell r="I24">
+            <v>2650</v>
+          </cell>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
+          <cell r="K24">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>1630095233999</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>0HCQ1</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G25">
+            <v>20</v>
+          </cell>
+          <cell r="H25">
+            <v>8000</v>
+          </cell>
+          <cell r="I25">
+            <v>2120</v>
+          </cell>
+          <cell r="J25">
+            <v>0</v>
+          </cell>
+          <cell r="K25">
+            <v>10120</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>1631231395773</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>0HCQ2</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G26">
+            <v>120</v>
+          </cell>
+          <cell r="H26">
+            <v>10000</v>
+          </cell>
+          <cell r="I26">
+            <v>2650</v>
+          </cell>
+          <cell r="J26">
+            <v>0</v>
+          </cell>
+          <cell r="K26">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>1639605008399</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>0HC10</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G27">
+            <v>120</v>
+          </cell>
+          <cell r="H27">
+            <v>10000</v>
+          </cell>
+          <cell r="I27">
+            <v>2650</v>
+          </cell>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
+          <cell r="K27">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>1623238939609</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>0HNHT</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G28">
+            <v>120</v>
+          </cell>
+          <cell r="H28">
+            <v>22000</v>
+          </cell>
+          <cell r="I28">
+            <v>11330</v>
+          </cell>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
+          <cell r="K28">
+            <v>33330</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>1624962942982</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>0HCQ1</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G29">
+            <v>120</v>
+          </cell>
+          <cell r="H29">
+            <v>10000</v>
+          </cell>
+          <cell r="I29">
+            <v>2650</v>
+          </cell>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
+          <cell r="K29">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30" t="str">
+            <v>CH13597032513</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>HCM</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>GCH</v>
+          </cell>
+          <cell r="G30">
+            <v>20</v>
+          </cell>
+          <cell r="H30">
+            <v>4000</v>
+          </cell>
+          <cell r="I30">
+            <v>400</v>
+          </cell>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
+          <cell r="K30">
+            <v>4400</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>1643419363866</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>0HCBH</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G31">
+            <v>120</v>
+          </cell>
+          <cell r="H31">
+            <v>10000</v>
+          </cell>
+          <cell r="I31">
+            <v>2650</v>
+          </cell>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
+          <cell r="K31">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>1641357188730</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>0HC12</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G32">
+            <v>120</v>
+          </cell>
+          <cell r="H32">
+            <v>10000</v>
+          </cell>
+          <cell r="I32">
+            <v>2650</v>
+          </cell>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
+          <cell r="K32">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>1644350495201</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>0HCBT</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G33">
+            <v>120</v>
+          </cell>
+          <cell r="H33">
+            <v>10000</v>
+          </cell>
+          <cell r="I33">
+            <v>2650</v>
+          </cell>
+          <cell r="J33">
+            <v>0</v>
+          </cell>
+          <cell r="K33">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>1622673169761</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>0HCGV</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G34">
+            <v>120</v>
+          </cell>
+          <cell r="H34">
+            <v>10000</v>
+          </cell>
+          <cell r="I34">
+            <v>2650</v>
+          </cell>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
+          <cell r="K34">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35">
+            <v>1624499778521</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>0HNHT</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>VHT</v>
+          </cell>
+          <cell r="G35">
+            <v>20</v>
+          </cell>
+          <cell r="H35">
+            <v>150000</v>
+          </cell>
+          <cell r="I35">
+            <v>39750</v>
+          </cell>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
+          <cell r="K35">
+            <v>189750</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36">
+            <v>13672678559</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>0HCBH</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G36">
+            <v>120</v>
+          </cell>
+          <cell r="H36">
+            <v>10000</v>
+          </cell>
+          <cell r="I36">
+            <v>2650</v>
+          </cell>
+          <cell r="J36">
+            <v>0</v>
+          </cell>
+          <cell r="K36">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37">
+            <v>13676730122</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>0HCQ3</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G37">
+            <v>300</v>
+          </cell>
+          <cell r="H37">
+            <v>12500</v>
+          </cell>
+          <cell r="I37">
+            <v>3313</v>
+          </cell>
+          <cell r="J37">
+            <v>0</v>
+          </cell>
+          <cell r="K37">
+            <v>15813</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38">
+            <v>13676723694</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>0HCQ1</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G38">
+            <v>600</v>
+          </cell>
+          <cell r="H38">
+            <v>16000</v>
+          </cell>
+          <cell r="I38">
+            <v>4240</v>
+          </cell>
+          <cell r="J38">
+            <v>0</v>
+          </cell>
+          <cell r="K38">
+            <v>20240</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39">
+            <v>1635236287648</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>0HCQ1</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G39">
+            <v>120</v>
+          </cell>
+          <cell r="H39">
+            <v>10000</v>
+          </cell>
+          <cell r="I39">
+            <v>2650</v>
+          </cell>
+          <cell r="J39">
+            <v>0</v>
+          </cell>
+          <cell r="K39">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="D40">
+            <v>1626382177804</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>0HNHT</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>VHT</v>
+          </cell>
+          <cell r="G40">
+            <v>120</v>
+          </cell>
+          <cell r="H40">
+            <v>150000</v>
+          </cell>
+          <cell r="I40">
+            <v>39750</v>
+          </cell>
+          <cell r="J40">
+            <v>0</v>
+          </cell>
+          <cell r="K40">
+            <v>189750</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="D41">
+            <v>1637664806496</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>0HC12</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G41">
+            <v>120</v>
+          </cell>
+          <cell r="H41">
+            <v>10000</v>
+          </cell>
+          <cell r="I41">
+            <v>2650</v>
+          </cell>
+          <cell r="J41">
+            <v>0</v>
+          </cell>
+          <cell r="K41">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="D42">
+            <v>1620394572439</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>0HCGV</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G42">
+            <v>120</v>
+          </cell>
+          <cell r="H42">
+            <v>10000</v>
+          </cell>
+          <cell r="I42">
+            <v>2650</v>
+          </cell>
+          <cell r="J42">
+            <v>0</v>
+          </cell>
+          <cell r="K42">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="D43">
+            <v>1620091033634</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>0HCQ4</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G43">
+            <v>120</v>
+          </cell>
+          <cell r="H43">
+            <v>10000</v>
+          </cell>
+          <cell r="I43">
+            <v>2650</v>
+          </cell>
+          <cell r="J43">
+            <v>0</v>
+          </cell>
+          <cell r="K43">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44">
+            <v>1637526098771</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>0HCQ3</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G44">
+            <v>120</v>
+          </cell>
+          <cell r="H44">
+            <v>10000</v>
+          </cell>
+          <cell r="I44">
+            <v>2650</v>
+          </cell>
+          <cell r="J44">
+            <v>0</v>
+          </cell>
+          <cell r="K44">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45">
+            <v>1619922156162</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>0HCQ5</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G45">
+            <v>120</v>
+          </cell>
+          <cell r="H45">
+            <v>10000</v>
+          </cell>
+          <cell r="I45">
+            <v>2650</v>
+          </cell>
+          <cell r="J45">
+            <v>0</v>
+          </cell>
+          <cell r="K45">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="D46">
+            <v>1640059893787</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>0HCBH</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G46">
+            <v>120</v>
+          </cell>
+          <cell r="H46">
+            <v>10000</v>
+          </cell>
+          <cell r="I46">
+            <v>2650</v>
+          </cell>
+          <cell r="J46">
+            <v>0</v>
+          </cell>
+          <cell r="K46">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="D47">
+            <v>1618576914059</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>0HC12</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G47">
+            <v>120</v>
+          </cell>
+          <cell r="H47">
+            <v>10000</v>
+          </cell>
+          <cell r="I47">
+            <v>2650</v>
+          </cell>
+          <cell r="J47">
+            <v>0</v>
+          </cell>
+          <cell r="K47">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="D48">
+            <v>1633200843959</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>0HCBH</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G48">
+            <v>20</v>
+          </cell>
+          <cell r="H48">
+            <v>8000</v>
+          </cell>
+          <cell r="I48">
+            <v>2120</v>
+          </cell>
+          <cell r="J48">
+            <v>0</v>
+          </cell>
+          <cell r="K48">
+            <v>10120</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="D49">
+            <v>1618648668964</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>0HCQ4</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G49">
+            <v>120</v>
+          </cell>
+          <cell r="H49">
+            <v>10000</v>
+          </cell>
+          <cell r="I49">
+            <v>2650</v>
+          </cell>
+          <cell r="J49">
+            <v>0</v>
+          </cell>
+          <cell r="K49">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50">
+            <v>1617920058094</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>0HCGV</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G50">
+            <v>120</v>
+          </cell>
+          <cell r="H50">
+            <v>10000</v>
+          </cell>
+          <cell r="I50">
+            <v>2650</v>
+          </cell>
+          <cell r="J50">
+            <v>0</v>
+          </cell>
+          <cell r="K50">
+            <v>12650</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51">
+            <v>1632586853510</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>0HCQ7</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>VCN</v>
+          </cell>
+          <cell r="G51">
+            <v>120</v>
+          </cell>
+          <cell r="H51">
+            <v>10000</v>
+          </cell>
+          <cell r="I51">
+            <v>2650</v>
+          </cell>
+          <cell r="J51">
+            <v>0</v>
+          </cell>
+          <cell r="K51">
+            <v>12650</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1919,52 +3212,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:EZ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AF40" sqref="AF40:AG40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.94921875" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.31640625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.69921875" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.83984375" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="27.08984375" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.88671875" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.66015625" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.53515625" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="27.08984375" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="20.83984375" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="16.42578125" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.56640625" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="22" width="16.42578125" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="17.16015625" style="11" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="27.08984375" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="27.08984375" style="7" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.265625" style="11" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="21.328125" style="11" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="26.6015625" style="11" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="23.4140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="23.4140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="27.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="7" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="27.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="20.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="16.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="16.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="17.140625" style="11" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="27.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="27.140625" style="7" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18.28515625" style="11" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="21.28515625" style="11" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="26.5703125" style="11" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="23.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="23.42578125" style="20" customWidth="1"/>
     <col min="34" max="35" width="16.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="15.32421875" style="7" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.60546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="13.97265625" style="7" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="24.02734375" style="7" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="27.08984375" style="7" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="23.66015625" style="7" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="22.30859375" style="7" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="21.57421875" style="7" customWidth="1" collapsed="1"/>
-    <col min="44" max="16384" width="8.82421875" style="7" collapsed="1"/>
+    <col min="36" max="36" width="15.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="14" style="7" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="24" style="7" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="27.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="26.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="22.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="21.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="44" max="16384" width="8.85546875" style="7" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:156" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:156" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="39" t="s">
         <v>19</v>
@@ -1991,7 +3284,7 @@
       <c r="AD1" s="7"/>
       <c r="AE1" s="19"/>
     </row>
-    <row r="2" spans="1:156" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:156" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="40" t="s">
         <v>20</v>
@@ -2020,7 +3313,7 @@
       <c r="AE2" s="19"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -2045,7 +3338,7 @@
       <c r="AE3" s="19"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:156" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:156" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="37" t="s">
@@ -2071,7 +3364,7 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="19"/>
     </row>
-    <row r="5" spans="1:156" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:156" x14ac:dyDescent="0.25">
       <c r="E5" s="35" t="s">
         <v>47</v>
       </c>
@@ -2086,14 +3379,14 @@
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:156" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:156" x14ac:dyDescent="0.25">
       <c r="F6" s="35" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:156" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:156" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2128,7 +3421,7 @@
       <c r="AJ7" s="7"/>
       <c r="AN7" s="15"/>
     </row>
-    <row r="8" spans="1:156" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:156" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2168,7 +3461,7 @@
       <c r="AL8" s="12"/>
       <c r="AN8" s="15"/>
     </row>
-    <row r="9" spans="1:156" s="25" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:156" s="25" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
@@ -2265,7 +3558,9 @@
       <c r="AF9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AG9" s="23"/>
+      <c r="AG9" s="23" t="s">
+        <v>419</v>
+      </c>
       <c r="AH9" s="22" t="s">
         <v>8</v>
       </c>
@@ -2410,7 +3705,7 @@
       <c r="EY9" s="24"/>
       <c r="EZ9" s="24"/>
     </row>
-    <row r="10" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
         <v>1</v>
       </c>
@@ -2507,7 +3802,10 @@
       <c r="AF10" s="28">
         <v>12650</v>
       </c>
-      <c r="AG10" s="28"/>
+      <c r="AG10" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B10),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH10" s="27" t="s">
         <v>68</v>
       </c>
@@ -2539,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
         <v>2</v>
       </c>
@@ -2636,7 +3934,10 @@
       <c r="AF11" s="28">
         <v>189750</v>
       </c>
-      <c r="AG11" s="28"/>
+      <c r="AG11" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B11),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>189750</v>
+      </c>
       <c r="AH11" s="27" t="s">
         <v>68</v>
       </c>
@@ -2668,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
         <v>3</v>
       </c>
@@ -2765,7 +4066,10 @@
       <c r="AF12" s="28">
         <v>12650</v>
       </c>
-      <c r="AG12" s="28"/>
+      <c r="AG12" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B12),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH12" s="27" t="s">
         <v>68</v>
       </c>
@@ -2797,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
         <v>4</v>
       </c>
@@ -2894,7 +4198,10 @@
       <c r="AF13" s="33">
         <v>11501</v>
       </c>
-      <c r="AG13" s="28"/>
+      <c r="AG13" s="28" t="e">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B13),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="AH13" s="27" t="s">
         <v>68</v>
       </c>
@@ -2926,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
         <v>5</v>
       </c>
@@ -3023,7 +4330,10 @@
       <c r="AF14" s="28">
         <v>12650</v>
       </c>
-      <c r="AG14" s="28"/>
+      <c r="AG14" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B14),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH14" s="27" t="s">
         <v>68</v>
       </c>
@@ -3055,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
         <v>6</v>
       </c>
@@ -3152,7 +4462,10 @@
       <c r="AF15" s="28">
         <v>15813</v>
       </c>
-      <c r="AG15" s="28"/>
+      <c r="AG15" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B15),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>15813</v>
+      </c>
       <c r="AH15" s="27" t="s">
         <v>68</v>
       </c>
@@ -3184,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:156" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
         <v>7</v>
       </c>
@@ -3281,7 +4594,10 @@
       <c r="AF16" s="28">
         <v>12650</v>
       </c>
-      <c r="AG16" s="28"/>
+      <c r="AG16" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B16),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH16" s="27" t="s">
         <v>68</v>
       </c>
@@ -3313,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
         <v>8</v>
       </c>
@@ -3410,7 +4726,10 @@
       <c r="AF17" s="28">
         <v>33330</v>
       </c>
-      <c r="AG17" s="28"/>
+      <c r="AG17" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B17),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>33330</v>
+      </c>
       <c r="AH17" s="27" t="s">
         <v>68</v>
       </c>
@@ -3442,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
         <v>9</v>
       </c>
@@ -3539,7 +4858,10 @@
       <c r="AF18" s="28">
         <v>12650</v>
       </c>
-      <c r="AG18" s="28"/>
+      <c r="AG18" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B18),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH18" s="27" t="s">
         <v>68</v>
       </c>
@@ -3571,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
         <v>10</v>
       </c>
@@ -3668,7 +4990,10 @@
       <c r="AF19" s="28">
         <v>12650</v>
       </c>
-      <c r="AG19" s="28"/>
+      <c r="AG19" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B19),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH19" s="27" t="s">
         <v>68</v>
       </c>
@@ -3700,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
         <v>11</v>
       </c>
@@ -3797,7 +5122,10 @@
       <c r="AF20" s="28">
         <v>12650</v>
       </c>
-      <c r="AG20" s="28"/>
+      <c r="AG20" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B20),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH20" s="27" t="s">
         <v>68</v>
       </c>
@@ -3829,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
         <v>12</v>
       </c>
@@ -3926,7 +5254,10 @@
       <c r="AF21" s="28">
         <v>12650</v>
       </c>
-      <c r="AG21" s="28"/>
+      <c r="AG21" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B21),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH21" s="27" t="s">
         <v>68</v>
       </c>
@@ -3958,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
         <v>13</v>
       </c>
@@ -4055,7 +5386,10 @@
       <c r="AF22" s="28">
         <v>12650</v>
       </c>
-      <c r="AG22" s="28"/>
+      <c r="AG22" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B22),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH22" s="27" t="s">
         <v>68</v>
       </c>
@@ -4087,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
         <v>14</v>
       </c>
@@ -4184,7 +5518,10 @@
       <c r="AF23" s="28">
         <v>10120</v>
       </c>
-      <c r="AG23" s="28"/>
+      <c r="AG23" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B23),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>10120</v>
+      </c>
       <c r="AH23" s="27" t="s">
         <v>68</v>
       </c>
@@ -4216,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="26">
         <v>15</v>
       </c>
@@ -4313,7 +5650,10 @@
       <c r="AF24" s="28">
         <v>12650</v>
       </c>
-      <c r="AG24" s="28"/>
+      <c r="AG24" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B24),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH24" s="27" t="s">
         <v>68</v>
       </c>
@@ -4345,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26">
         <v>16</v>
       </c>
@@ -4442,7 +5782,10 @@
       <c r="AF25" s="28">
         <v>12650</v>
       </c>
-      <c r="AG25" s="28"/>
+      <c r="AG25" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B25),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH25" s="27" t="s">
         <v>68</v>
       </c>
@@ -4474,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="26">
         <v>17</v>
       </c>
@@ -4571,7 +5914,10 @@
       <c r="AF26" s="28">
         <v>12650</v>
       </c>
-      <c r="AG26" s="28"/>
+      <c r="AG26" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B26),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH26" s="27" t="s">
         <v>68</v>
       </c>
@@ -4603,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="26">
         <v>18</v>
       </c>
@@ -4700,7 +6046,10 @@
       <c r="AF27" s="28">
         <v>27830</v>
       </c>
-      <c r="AG27" s="28"/>
+      <c r="AG27" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B27),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>27830</v>
+      </c>
       <c r="AH27" s="27" t="s">
         <v>68</v>
       </c>
@@ -4732,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="26">
         <v>19</v>
       </c>
@@ -4829,7 +6178,10 @@
       <c r="AF28" s="28">
         <v>12650</v>
       </c>
-      <c r="AG28" s="28"/>
+      <c r="AG28" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B28),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH28" s="27" t="s">
         <v>68</v>
       </c>
@@ -4861,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="26">
         <v>20</v>
       </c>
@@ -4958,7 +6310,10 @@
       <c r="AF29" s="28">
         <v>10120</v>
       </c>
-      <c r="AG29" s="28"/>
+      <c r="AG29" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B29),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>10120</v>
+      </c>
       <c r="AH29" s="27" t="s">
         <v>68</v>
       </c>
@@ -4990,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="26">
         <v>21</v>
       </c>
@@ -5087,7 +6442,10 @@
       <c r="AF30" s="28">
         <v>12650</v>
       </c>
-      <c r="AG30" s="28"/>
+      <c r="AG30" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B30),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH30" s="27" t="s">
         <v>68</v>
       </c>
@@ -5119,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="26">
         <v>22</v>
       </c>
@@ -5216,7 +6574,10 @@
       <c r="AF31" s="28">
         <v>12650</v>
       </c>
-      <c r="AG31" s="28"/>
+      <c r="AG31" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B31),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH31" s="27" t="s">
         <v>68</v>
       </c>
@@ -5248,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="26">
         <v>23</v>
       </c>
@@ -5345,7 +6706,10 @@
       <c r="AF32" s="28">
         <v>12650</v>
       </c>
-      <c r="AG32" s="28"/>
+      <c r="AG32" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B32),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH32" s="27" t="s">
         <v>68</v>
       </c>
@@ -5377,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="26">
         <v>24</v>
       </c>
@@ -5474,7 +6838,10 @@
       <c r="AF33" s="28">
         <v>10120</v>
       </c>
-      <c r="AG33" s="28"/>
+      <c r="AG33" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B33),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>10120</v>
+      </c>
       <c r="AH33" s="27" t="s">
         <v>68</v>
       </c>
@@ -5506,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="26">
         <v>25</v>
       </c>
@@ -5603,7 +6970,10 @@
       <c r="AF34" s="28">
         <v>12650</v>
       </c>
-      <c r="AG34" s="28"/>
+      <c r="AG34" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B34),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH34" s="27" t="s">
         <v>68</v>
       </c>
@@ -5635,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="26">
         <v>26</v>
       </c>
@@ -5732,7 +7102,10 @@
       <c r="AF35" s="28">
         <v>10120</v>
       </c>
-      <c r="AG35" s="28"/>
+      <c r="AG35" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B35),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>10120</v>
+      </c>
       <c r="AH35" s="27" t="s">
         <v>68</v>
       </c>
@@ -5764,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="26">
         <v>27</v>
       </c>
@@ -5861,7 +7234,10 @@
       <c r="AF36" s="28">
         <v>12650</v>
       </c>
-      <c r="AG36" s="28"/>
+      <c r="AG36" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B36),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH36" s="27" t="s">
         <v>68</v>
       </c>
@@ -5893,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="26">
         <v>28</v>
       </c>
@@ -5990,7 +7366,10 @@
       <c r="AF37" s="28">
         <v>12650</v>
       </c>
-      <c r="AG37" s="28"/>
+      <c r="AG37" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B37),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH37" s="27" t="s">
         <v>68</v>
       </c>
@@ -6022,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26">
         <v>29</v>
       </c>
@@ -6119,7 +7498,10 @@
       <c r="AF38" s="28">
         <v>12650</v>
       </c>
-      <c r="AG38" s="28"/>
+      <c r="AG38" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B38),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH38" s="27" t="s">
         <v>68</v>
       </c>
@@ -6151,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="26">
         <v>30</v>
       </c>
@@ -6248,7 +7630,10 @@
       <c r="AF39" s="28">
         <v>12650</v>
       </c>
-      <c r="AG39" s="28"/>
+      <c r="AG39" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B39),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH39" s="27" t="s">
         <v>68</v>
       </c>
@@ -6280,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="26">
         <v>31</v>
       </c>
@@ -6374,10 +7759,13 @@
       <c r="AE40" s="28">
         <v>0</v>
       </c>
-      <c r="AF40" s="28">
+      <c r="AF40" s="33">
         <v>12650</v>
       </c>
-      <c r="AG40" s="28"/>
+      <c r="AG40" s="33" t="e">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B40),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="AH40" s="27" t="s">
         <v>68</v>
       </c>
@@ -6409,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="26">
         <v>32</v>
       </c>
@@ -6506,7 +7894,10 @@
       <c r="AF41" s="28">
         <v>12650</v>
       </c>
-      <c r="AG41" s="28"/>
+      <c r="AG41" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B41),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH41" s="27" t="s">
         <v>68</v>
       </c>
@@ -6538,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="26">
         <v>33</v>
       </c>
@@ -6635,7 +8026,10 @@
       <c r="AF42" s="28">
         <v>12650</v>
       </c>
-      <c r="AG42" s="28"/>
+      <c r="AG42" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B42),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH42" s="27" t="s">
         <v>68</v>
       </c>
@@ -6667,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="26">
         <v>34</v>
       </c>
@@ -6764,7 +8158,10 @@
       <c r="AF43" s="28">
         <v>12650</v>
       </c>
-      <c r="AG43" s="28"/>
+      <c r="AG43" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B43),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH43" s="27" t="s">
         <v>68</v>
       </c>
@@ -6796,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="26">
         <v>35</v>
       </c>
@@ -6893,7 +8290,10 @@
       <c r="AF44" s="28">
         <v>12650</v>
       </c>
-      <c r="AG44" s="28"/>
+      <c r="AG44" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B44),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH44" s="27" t="s">
         <v>68</v>
       </c>
@@ -6925,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26">
         <v>36</v>
       </c>
@@ -7022,7 +8422,10 @@
       <c r="AF45" s="28">
         <v>12650</v>
       </c>
-      <c r="AG45" s="28"/>
+      <c r="AG45" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B45),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH45" s="27" t="s">
         <v>68</v>
       </c>
@@ -7054,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="26">
         <v>37</v>
       </c>
@@ -7151,7 +8554,10 @@
       <c r="AF46" s="28">
         <v>12650</v>
       </c>
-      <c r="AG46" s="28"/>
+      <c r="AG46" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B46),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH46" s="27" t="s">
         <v>68</v>
       </c>
@@ -7183,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="26">
         <v>38</v>
       </c>
@@ -7280,7 +8686,10 @@
       <c r="AF47" s="28">
         <v>10120</v>
       </c>
-      <c r="AG47" s="28"/>
+      <c r="AG47" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B47),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>10120</v>
+      </c>
       <c r="AH47" s="27" t="s">
         <v>367</v>
       </c>
@@ -7312,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="26">
         <v>39</v>
       </c>
@@ -7409,7 +8818,10 @@
       <c r="AF48" s="28">
         <v>12650</v>
       </c>
-      <c r="AG48" s="28"/>
+      <c r="AG48" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B48),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH48" s="27" t="s">
         <v>68</v>
       </c>
@@ -7441,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="26">
         <v>40</v>
       </c>
@@ -7538,7 +8950,10 @@
       <c r="AF49" s="28">
         <v>20240</v>
       </c>
-      <c r="AG49" s="28"/>
+      <c r="AG49" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B49),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>20240</v>
+      </c>
       <c r="AH49" s="27" t="s">
         <v>68</v>
       </c>
@@ -7570,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="26">
         <v>41</v>
       </c>
@@ -7667,7 +9082,10 @@
       <c r="AF50" s="28">
         <v>189750</v>
       </c>
-      <c r="AG50" s="28"/>
+      <c r="AG50" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B50),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>189750</v>
+      </c>
       <c r="AH50" s="27" t="s">
         <v>68</v>
       </c>
@@ -7699,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="26">
         <v>42</v>
       </c>
@@ -7796,7 +9214,10 @@
       <c r="AF51" s="28">
         <v>12650</v>
       </c>
-      <c r="AG51" s="28"/>
+      <c r="AG51" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B51),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH51" s="27" t="s">
         <v>68</v>
       </c>
@@ -7828,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="26">
         <v>43</v>
       </c>
@@ -7925,7 +9346,10 @@
       <c r="AF52" s="28">
         <v>12650</v>
       </c>
-      <c r="AG52" s="28"/>
+      <c r="AG52" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B52),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH52" s="27" t="s">
         <v>68</v>
       </c>
@@ -7957,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="26">
         <v>44</v>
       </c>
@@ -8054,7 +9478,10 @@
       <c r="AF53" s="28">
         <v>12650</v>
       </c>
-      <c r="AG53" s="28"/>
+      <c r="AG53" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B53),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>12650</v>
+      </c>
       <c r="AH53" s="27" t="s">
         <v>68</v>
       </c>
@@ -8086,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="26">
         <v>45</v>
       </c>
@@ -8183,7 +9610,10 @@
       <c r="AF54" s="28">
         <v>10120</v>
       </c>
-      <c r="AG54" s="28"/>
+      <c r="AG54" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B54),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>10120</v>
+      </c>
       <c r="AH54" s="27" t="s">
         <v>68</v>
       </c>
@@ -8215,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:43" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="26">
         <v>46</v>
       </c>
@@ -8312,7 +9742,10 @@
       <c r="AF55" s="28">
         <v>10120</v>
       </c>
-      <c r="AG55" s="28"/>
+      <c r="AG55" s="28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(B55),'[1]INBKCUOC_KHACHHANG20210107-1'!$D$3:$K$51,8,0)</f>
+        <v>10120</v>
+      </c>
       <c r="AH55" s="27" t="s">
         <v>68</v>
       </c>
@@ -8344,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="15"/>
@@ -8388,7 +9821,7 @@
       <c r="AL56" s="9"/>
       <c r="AN56" s="9"/>
     </row>
-    <row r="57" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="15"/>
@@ -8429,7 +9862,7 @@
       <c r="AL57" s="9"/>
       <c r="AN57" s="9"/>
     </row>
-    <row r="58" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="15"/>
@@ -8470,7 +9903,7 @@
       <c r="AL58" s="9"/>
       <c r="AN58" s="9"/>
     </row>
-    <row r="59" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="15"/>
@@ -8511,7 +9944,7 @@
       <c r="AL59" s="9"/>
       <c r="AN59" s="9"/>
     </row>
-    <row r="60" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="15"/>
@@ -8552,7 +9985,7 @@
       <c r="AL60" s="9"/>
       <c r="AN60" s="9"/>
     </row>
-    <row r="61" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="15"/>
@@ -8593,7 +10026,7 @@
       <c r="AL61" s="9"/>
       <c r="AN61" s="9"/>
     </row>
-    <row r="62" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="15"/>
@@ -8634,7 +10067,7 @@
       <c r="AL62" s="9"/>
       <c r="AN62" s="9"/>
     </row>
-    <row r="63" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="15"/>
@@ -8675,7 +10108,7 @@
       <c r="AL63" s="9"/>
       <c r="AN63" s="9"/>
     </row>
-    <row r="64" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="15"/>
@@ -8716,7 +10149,7 @@
       <c r="AL64" s="9"/>
       <c r="AN64" s="9"/>
     </row>
-    <row r="65" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="15"/>
@@ -8757,7 +10190,7 @@
       <c r="AL65" s="9"/>
       <c r="AN65" s="9"/>
     </row>
-    <row r="66" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="15"/>
@@ -8798,7 +10231,7 @@
       <c r="AL66" s="9"/>
       <c r="AN66" s="9"/>
     </row>
-    <row r="67" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="15"/>
@@ -8839,7 +10272,7 @@
       <c r="AL67" s="9"/>
       <c r="AN67" s="9"/>
     </row>
-    <row r="68" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="15"/>
@@ -8880,7 +10313,7 @@
       <c r="AL68" s="9"/>
       <c r="AN68" s="9"/>
     </row>
-    <row r="69" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="15"/>
@@ -8921,7 +10354,7 @@
       <c r="AL69" s="9"/>
       <c r="AN69" s="9"/>
     </row>
-    <row r="70" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="15"/>
@@ -8962,7 +10395,7 @@
       <c r="AL70" s="9"/>
       <c r="AN70" s="9"/>
     </row>
-    <row r="71" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="15"/>
@@ -9003,7 +10436,7 @@
       <c r="AL71" s="9"/>
       <c r="AN71" s="9"/>
     </row>
-    <row r="72" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="15"/>
@@ -9044,7 +10477,7 @@
       <c r="AL72" s="9"/>
       <c r="AN72" s="9"/>
     </row>
-    <row r="73" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="15"/>
@@ -9085,7 +10518,7 @@
       <c r="AL73" s="9"/>
       <c r="AN73" s="9"/>
     </row>
-    <row r="74" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="15"/>
@@ -9126,7 +10559,7 @@
       <c r="AL74" s="9"/>
       <c r="AN74" s="9"/>
     </row>
-    <row r="75" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="15"/>
@@ -9167,7 +10600,7 @@
       <c r="AL75" s="9"/>
       <c r="AN75" s="9"/>
     </row>
-    <row r="76" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="15"/>
@@ -9208,7 +10641,7 @@
       <c r="AL76" s="9"/>
       <c r="AN76" s="9"/>
     </row>
-    <row r="77" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="15"/>
@@ -9249,7 +10682,7 @@
       <c r="AL77" s="9"/>
       <c r="AN77" s="9"/>
     </row>
-    <row r="78" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="15"/>
@@ -9290,7 +10723,7 @@
       <c r="AL78" s="9"/>
       <c r="AN78" s="9"/>
     </row>
-    <row r="79" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="15"/>
@@ -9331,7 +10764,7 @@
       <c r="AL79" s="9"/>
       <c r="AN79" s="9"/>
     </row>
-    <row r="80" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="15"/>
@@ -9372,7 +10805,7 @@
       <c r="AL80" s="9"/>
       <c r="AN80" s="9"/>
     </row>
-    <row r="81" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="15"/>
@@ -9413,7 +10846,7 @@
       <c r="AL81" s="9"/>
       <c r="AN81" s="9"/>
     </row>
-    <row r="82" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="15"/>
@@ -9454,7 +10887,7 @@
       <c r="AL82" s="9"/>
       <c r="AN82" s="9"/>
     </row>
-    <row r="83" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="15"/>
@@ -9495,7 +10928,7 @@
       <c r="AL83" s="9"/>
       <c r="AN83" s="9"/>
     </row>
-    <row r="84" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="15"/>
@@ -9536,7 +10969,7 @@
       <c r="AL84" s="9"/>
       <c r="AN84" s="9"/>
     </row>
-    <row r="85" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="15"/>
@@ -9577,7 +11010,7 @@
       <c r="AL85" s="9"/>
       <c r="AN85" s="9"/>
     </row>
-    <row r="86" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="15"/>
@@ -9619,7 +11052,7 @@
       <c r="AN86" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:EZ9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:EZ56"/>
   <mergeCells count="7">
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="E5:J5"/>
